--- a/app/config/tables/imnci/forms/imnci/imnci.xlsx
+++ b/app/config/tables/imnci/forms/imnci/imnci.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3181" yWindow="0" windowWidth="45295" windowHeight="28224" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="3181" yWindow="0" windowWidth="45295" windowHeight="28224" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="1340">
   <si>
     <t>comments</t>
   </si>
@@ -4011,12 +4011,6 @@
   </si>
   <si>
     <t>data_value</t>
-  </si>
-  <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>display.text.hindi</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -5257,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -5266,28 +5260,28 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1332</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1333</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1334</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>1337</v>
       </c>
       <c r="M1" s="31" t="s">
         <v>5</v>
@@ -5296,10 +5290,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="Q1" s="32" t="s">
         <v>7</v>
@@ -5317,7 +5311,7 @@
     <row r="3" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="40" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -5332,7 +5326,7 @@
     <row r="4" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="40" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -5349,7 +5343,7 @@
       <c r="B5" s="35"/>
       <c r="C5" s="4"/>
       <c r="D5" s="62" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>1208</v>
@@ -5358,7 +5352,7 @@
         <v>82</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>83</v>
@@ -5394,7 +5388,7 @@
     <row r="7" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="40" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5458,7 +5452,7 @@
     <row r="11" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="40" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5509,7 +5503,7 @@
     <row r="14" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="40" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -5525,7 +5519,7 @@
       <c r="A15" s="15"/>
       <c r="B15" s="35"/>
       <c r="D15" s="41" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>1161</v>
@@ -5547,7 +5541,7 @@
       <c r="A16" s="15"/>
       <c r="B16" s="35"/>
       <c r="D16" s="42" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>1070</v>
@@ -5583,7 +5577,7 @@
       <c r="A18" s="15"/>
       <c r="B18" s="35"/>
       <c r="D18" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>1017</v>
@@ -5744,10 +5738,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>2</v>
@@ -5756,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>3</v>
@@ -5765,19 +5759,19 @@
         <v>4</v>
       </c>
       <c r="I1" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>1333</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>1334</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>1337</v>
       </c>
       <c r="N1" s="31" t="s">
         <v>5</v>
@@ -5786,16 +5780,16 @@
         <v>6</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="S1" s="31" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="49.75" x14ac:dyDescent="0.2">
@@ -5803,7 +5797,7 @@
         <v>340</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6091,7 +6085,7 @@
     <row r="27" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="27" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -6304,7 +6298,7 @@
       <c r="B41" s="53"/>
       <c r="C41" s="53"/>
       <c r="E41" s="41" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F41" s="41" t="s">
         <v>443</v>
@@ -7024,7 +7018,7 @@
     <row r="98" spans="1:27" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="60" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C98" s="53"/>
     </row>
@@ -7304,7 +7298,7 @@
       <c r="B119" s="53"/>
       <c r="C119" s="53"/>
       <c r="E119" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F119" s="42" t="s">
         <v>1017</v>
@@ -7434,7 +7428,7 @@
     <row r="129" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A129" s="22"/>
       <c r="B129" s="54" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C129" s="53"/>
     </row>
@@ -7539,7 +7533,7 @@
       <c r="B136" s="53"/>
       <c r="C136" s="53"/>
       <c r="E136" s="41" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F136" s="41" t="s">
         <v>443</v>
@@ -8093,7 +8087,7 @@
     <row r="191" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A191" s="15"/>
       <c r="B191" s="60" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C191" s="53"/>
     </row>
@@ -8132,7 +8126,7 @@
       <c r="C193" s="53"/>
       <c r="D193" s="18"/>
       <c r="E193" s="42" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F193" s="42" t="s">
         <v>1070</v>
@@ -8155,7 +8149,7 @@
       <c r="P193" s="18"/>
       <c r="Q193" s="18"/>
       <c r="R193" s="55" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="S193" s="18"/>
       <c r="T193" s="18"/>
@@ -8642,7 +8636,7 @@
       <c r="B228" s="53"/>
       <c r="C228" s="53"/>
       <c r="E228" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F228" s="42" t="s">
         <v>1203</v>
@@ -8743,7 +8737,7 @@
     <row r="237" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A237" s="15"/>
       <c r="B237" s="10" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C237" s="53"/>
     </row>
@@ -9313,7 +9307,7 @@
     <row r="280" spans="1:27" ht="26.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="15"/>
       <c r="B280" s="55" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C280" s="53"/>
       <c r="G280" s="18"/>
@@ -9436,7 +9430,7 @@
       <c r="B290" s="53"/>
       <c r="C290" s="53"/>
       <c r="E290" s="41" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F290" s="41" t="s">
         <v>534</v>
@@ -10554,7 +10548,7 @@
     <row r="387" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A387" s="15"/>
       <c r="B387" s="23" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C387" s="53"/>
     </row>
@@ -10819,7 +10813,7 @@
     <row r="403" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A403" s="15"/>
       <c r="B403" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C403" s="53"/>
     </row>
@@ -10901,7 +10895,7 @@
       <c r="B411" s="53"/>
       <c r="C411" s="53"/>
       <c r="E411" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F411" s="42" t="s">
         <v>1017</v>
@@ -10967,7 +10961,7 @@
       <c r="B416" s="53"/>
       <c r="C416" s="53"/>
       <c r="E416" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F416" s="42" t="s">
         <v>1017</v>
@@ -11010,7 +11004,7 @@
       <c r="B420" s="53"/>
       <c r="C420" s="53"/>
       <c r="E420" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F420" s="42" t="s">
         <v>1017</v>
@@ -11042,7 +11036,7 @@
       <c r="B422" s="53"/>
       <c r="C422" s="53"/>
       <c r="E422" s="41" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F422" s="41" t="s">
         <v>1096</v>
@@ -11151,7 +11145,7 @@
       <c r="B431" s="53"/>
       <c r="C431" s="53"/>
       <c r="E431" s="41" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F431" s="41" t="s">
         <v>1170</v>
@@ -11182,7 +11176,7 @@
       <c r="B434" s="53"/>
       <c r="C434" s="53"/>
       <c r="E434" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F434" s="42" t="s">
         <v>1017</v>
@@ -11259,7 +11253,7 @@
       <c r="B441" s="53"/>
       <c r="C441" s="53"/>
       <c r="E441" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F441" s="42" t="s">
         <v>1017</v>
@@ -11357,7 +11351,7 @@
     <row r="450" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A450" s="15"/>
       <c r="B450" s="10" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="451" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
@@ -11643,7 +11637,7 @@
     <row r="475" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A475" s="15"/>
       <c r="B475" s="10" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="476" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
@@ -11918,7 +11912,7 @@
     <row r="497" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A497" s="15"/>
       <c r="B497" s="10" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="498" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
@@ -12210,7 +12204,7 @@
     <row r="520" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A520" s="15"/>
       <c r="B520" s="10" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="521" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
@@ -12434,7 +12428,7 @@
     <row r="539" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A539" s="15"/>
       <c r="B539" s="23" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C539" s="53"/>
     </row>
@@ -13694,7 +13688,7 @@
     <row r="613" spans="1:19" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A613" s="15"/>
       <c r="B613" s="56" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D613" s="18"/>
       <c r="G613" s="18"/>
@@ -14103,14 +14097,14 @@
     </row>
     <row r="635" spans="1:19" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B635" s="57" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C635" s="53"/>
     </row>
     <row r="636" spans="1:19" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B636" s="53"/>
       <c r="C636" s="57" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="637" spans="1:19" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -14929,10 +14923,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>2</v>
@@ -14941,7 +14935,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>3</v>
@@ -14950,19 +14944,19 @@
         <v>4</v>
       </c>
       <c r="I1" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>1333</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>1334</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>1337</v>
       </c>
       <c r="N1" s="31" t="s">
         <v>5</v>
@@ -14971,16 +14965,16 @@
         <v>6</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="S1" s="31" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14991,7 +14985,7 @@
     <row r="3" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C3" s="53"/>
     </row>
@@ -15003,7 +14997,7 @@
     <row r="5" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -15082,7 +15076,7 @@
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
       <c r="E9" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>1017</v>
@@ -15101,10 +15095,10 @@
       <c r="A10" s="15"/>
       <c r="B10" s="53"/>
       <c r="C10" s="58" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D10" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15122,14 +15116,14 @@
         <v>761</v>
       </c>
       <c r="N11" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="53"/>
       <c r="C12" s="58" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -15253,7 +15247,7 @@
     <row r="22" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -15403,7 +15397,7 @@
     <row r="31" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -15502,7 +15496,7 @@
     <row r="35" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="10" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C35" s="53"/>
     </row>
@@ -15530,7 +15524,7 @@
     <row r="43" spans="1:27" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="10" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C43" s="53"/>
     </row>
@@ -15801,7 +15795,7 @@
       <c r="B63" s="53"/>
       <c r="C63" s="53"/>
       <c r="E63" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F63" s="42" t="s">
         <v>1017</v>
@@ -15950,7 +15944,7 @@
     <row r="74" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="59" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C74" s="53"/>
     </row>
@@ -16004,7 +15998,7 @@
     <row r="79" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="10" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="80" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
@@ -16623,7 +16617,7 @@
     <row r="125" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
       <c r="B125" s="23" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="126" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
@@ -16662,12 +16656,12 @@
     </row>
     <row r="128" spans="1:27" ht="12.45" x14ac:dyDescent="0.2">
       <c r="B128" s="55" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="12.45" x14ac:dyDescent="0.2">
       <c r="B129" s="13" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
   </sheetData>
@@ -17423,9 +17417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17445,10 +17439,10 @@
         <v>1265</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>1266</v>
+        <v>1330</v>
       </c>
       <c r="D1" t="s">
-        <v>1267</v>
+        <v>1329</v>
       </c>
       <c r="E1" t="s">
         <v>1016</v>
@@ -18487,7 +18481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -18503,22 +18497,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1220</v>
       </c>
       <c r="C1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F1" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -18539,27 +18533,27 @@
     </row>
     <row r="4" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C6" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E6" s="29"/>
     </row>
@@ -18574,10 +18568,10 @@
     </row>
     <row r="8" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C8" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E8" s="29"/>
     </row>
@@ -18592,7 +18586,7 @@
     </row>
     <row r="10" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C10" t="s">
         <v>1224</v>
@@ -18611,13 +18605,13 @@
     </row>
     <row r="12" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F12" t="s">
         <v>1311</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -18625,15 +18619,15 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F13" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -18678,7 +18672,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -18687,28 +18681,28 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1332</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1333</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1334</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>1337</v>
       </c>
       <c r="M1" s="31" t="s">
         <v>5</v>
@@ -18717,16 +18711,16 @@
         <v>6</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="Q1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -18773,7 +18767,7 @@
     <row r="5" spans="1:18" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="D5" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>1017</v>
@@ -18833,7 +18827,7 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="O7" t="s">
         <v>23</v>
@@ -18880,7 +18874,7 @@
         <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="P9" s="12"/>
     </row>
@@ -18955,7 +18949,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>41</v>
@@ -19008,7 +19002,7 @@
       <c r="A18" s="15"/>
       <c r="C18" s="18"/>
       <c r="D18" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>36</v>
@@ -19108,7 +19102,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -19117,25 +19111,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1333</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1334</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1337</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -19144,16 +19138,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="33" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19181,7 +19175,7 @@
     <row r="5" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="D5" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>1017</v>
@@ -19202,7 +19196,7 @@
     <row r="6" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="D6" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>1017</v>
@@ -19223,7 +19217,7 @@
     <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="D7" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>1017</v>
@@ -19251,7 +19245,7 @@
     <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="D10" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>1017</v>
@@ -19576,7 +19570,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -19585,25 +19579,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1333</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1334</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1337</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -19612,16 +19606,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="33" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19721,7 +19715,7 @@
       <c r="A8" s="15"/>
       <c r="C8" s="4"/>
       <c r="D8" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E8" s="62" t="s">
         <v>1024</v>
@@ -19752,7 +19746,7 @@
       <c r="A9" s="15"/>
       <c r="C9" s="4"/>
       <c r="D9" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E9" s="62" t="s">
         <v>1024</v>
@@ -19843,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -19852,25 +19846,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1333</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1334</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1337</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -19879,16 +19873,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="33" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19935,7 +19929,7 @@
       <c r="A6" s="15"/>
       <c r="C6" s="4"/>
       <c r="D6" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>1017</v>
@@ -19987,7 +19981,7 @@
       <c r="B11" s="35"/>
       <c r="C11"/>
       <c r="D11" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>1017</v>
@@ -20023,7 +20017,7 @@
     <row r="14" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="D14" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>1017</v>
@@ -20069,7 +20063,7 @@
     <row r="18" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="D18" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>1017</v>
@@ -20090,7 +20084,7 @@
     <row r="19" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="D19" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>1017</v>
@@ -20118,7 +20112,7 @@
     <row r="22" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="D22" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E22" s="62" t="s">
         <v>131</v>
@@ -20239,7 +20233,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -20248,25 +20242,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1333</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1334</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1337</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -20275,16 +20269,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="33" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20297,7 +20291,7 @@
     <row r="4" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="D4" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>1017</v>
@@ -20352,7 +20346,7 @@
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="D8" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E8" s="62" t="s">
         <v>1024</v>
@@ -20465,7 +20459,7 @@
     <row r="22" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="D22" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>1017</v>
@@ -20505,7 +20499,7 @@
     <row r="27" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="D27" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>1198</v>
@@ -20526,7 +20520,7 @@
     <row r="28" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="D28" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E28" s="42" t="s">
         <v>1017</v>
@@ -20575,7 +20569,7 @@
     <row r="33" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="D33" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E33" s="62" t="s">
         <v>1024</v>
@@ -20605,7 +20599,7 @@
     <row r="35" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="D35" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E35" s="62" t="s">
         <v>1024</v>
@@ -20660,7 +20654,7 @@
     <row r="41" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="D41" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E41" s="62" t="s">
         <v>1024</v>
@@ -20681,7 +20675,7 @@
     <row r="42" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="D42" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E42" s="62" t="s">
         <v>1024</v>
@@ -20702,7 +20696,7 @@
     <row r="43" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="D43" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E43" s="62" t="s">
         <v>1024</v>
@@ -20759,7 +20753,7 @@
     <row r="49" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="D49" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E49" s="62" t="s">
         <v>1024</v>
@@ -20780,7 +20774,7 @@
     <row r="50" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="D50" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E50" s="62" t="s">
         <v>1024</v>
@@ -20801,7 +20795,7 @@
     <row r="51" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="D51" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E51" s="62" t="s">
         <v>1024</v>
@@ -20831,7 +20825,7 @@
     <row r="53" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="D53" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E53" s="42" t="s">
         <v>1017</v>
@@ -20909,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -20918,25 +20912,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1333</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1334</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1337</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -20945,16 +20939,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="33" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20967,7 +20961,7 @@
     <row r="4" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="D4" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>1017</v>
@@ -20988,7 +20982,7 @@
     <row r="5" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="D5" s="42" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>1017</v>
@@ -21055,7 +21049,7 @@
     <row r="12" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="D12" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E12" s="62" t="s">
         <v>1024</v>
@@ -21076,7 +21070,7 @@
     <row r="13" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="D13" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E13" s="62" t="s">
         <v>1024</v>
@@ -21275,7 +21269,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -21284,25 +21278,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1333</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1334</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1337</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -21311,16 +21305,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="33" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21348,7 +21342,7 @@
     <row r="5" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="D5" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E5" s="62" t="s">
         <v>1024</v>
@@ -21370,7 +21364,7 @@
       <c r="A6" s="15"/>
       <c r="B6" s="40"/>
       <c r="D6" s="62" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>1024</v>
@@ -21398,7 +21392,7 @@
     <row r="9" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="D9" s="41" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>217</v>
@@ -21413,7 +21407,7 @@
         <v>219</v>
       </c>
       <c r="I9" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -21598,7 +21592,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>2</v>
@@ -21607,25 +21601,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="31" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>1333</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>1334</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1335</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>1337</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>5</v>
@@ -21634,16 +21628,16 @@
         <v>6</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22408,7 +22402,7 @@
         <v>1256</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
@@ -23016,7 +23010,7 @@
         <v>1256</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="107" spans="1:29" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
